--- a/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -57,16 +57,16 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-40 + x_1 + x_2 + y_1 - 2y_2</t>
-  </si>
-  <si>
-    <t>-29.227749368863755</t>
+    <t>-16.45 + x_1 + x_2 + y_1 - 2y_2</t>
+  </si>
+  <si>
+    <t>-23.55</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.15666675595456303</t>
+    <t>0.86</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -78,103 +78,103 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>10 - x_1 + 2y_2</t>
-  </si>
-  <si>
-    <t>-9.943049499750106</t>
+    <t>18.85 - x_1 + 2y_2</t>
+  </si>
+  <si>
+    <t>-8.850000000000001</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13800456429576358</t>
-  </si>
-  <si>
-    <t>0.1442917297808448</t>
-  </si>
-  <si>
-    <t>0.18584830116489215</t>
-  </si>
-  <si>
-    <t>10 - x_2 + 2y_2</t>
-  </si>
-  <si>
-    <t>-9.619347253730185</t>
-  </si>
-  <si>
-    <t>0.5184691683237959</t>
-  </si>
-  <si>
-    <t>0.14204279791518193</t>
-  </si>
-  <si>
-    <t>0.7253194302840696</t>
-  </si>
-  <si>
-    <t>-10 - y_1</t>
-  </si>
-  <si>
-    <t>-0.4681908975410618</t>
-  </si>
-  <si>
-    <t>0.6594478945100174</t>
-  </si>
-  <si>
-    <t>0.21014327816995004</t>
-  </si>
-  <si>
-    <t>0.8024260807769621</t>
-  </si>
-  <si>
-    <t>-20 + y_1</t>
-  </si>
-  <si>
-    <t>-29.531809102458936</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>20.0 - x_2 + 2y_2</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>-5.1 - y_1</t>
+  </si>
+  <si>
+    <t>-4.9</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>7.800000000000001</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.100000000000001 + y_1</t>
+  </si>
+  <si>
+    <t>-25.1</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.8823228668879504</t>
-  </si>
-  <si>
-    <t>0.3006043950179783</t>
-  </si>
-  <si>
-    <t>0.3639923321247479</t>
-  </si>
-  <si>
-    <t>-10 - y_2</t>
-  </si>
-  <si>
-    <t>-0.37083149005744787</t>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>-11.35 - y_2</t>
+  </si>
+  <si>
+    <t>-1.3499999999999996</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2917832556941835</t>
-  </si>
-  <si>
-    <t>0.17616143459922728</t>
-  </si>
-  <si>
-    <t>0.14991796506813937</t>
-  </si>
-  <si>
-    <t>-20 + y_2</t>
-  </si>
-  <si>
-    <t>-29.629168509942552</t>
-  </si>
-  <si>
-    <t>0.8952090405611031</t>
-  </si>
-  <si>
-    <t>0.5717335497880606</t>
-  </si>
-  <si>
-    <t>0.4045788596548221</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>5.8999999999999995</t>
+  </si>
+  <si>
+    <t>-48.65 + y_2</t>
+  </si>
+  <si>
+    <t>-28.65</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>8.5</t>
   </si>
   <si>
     <t>x_1</t>
@@ -189,40 +189,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>0.6847124798650022</t>
-  </si>
-  <si>
-    <t>0.3610102338450799</t>
-  </si>
-  <si>
-    <t>-9.531809102458938</t>
-  </si>
-  <si>
-    <t>-9.629168509942552</t>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>-5.1</t>
+  </si>
+  <si>
+    <t>-8.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-19.789831807730053</t>
-  </si>
-  <si>
-    <t>-21.936015762530776</t>
+    <t>-27.29</t>
+  </si>
+  <si>
+    <t>-19.39</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.012375026173718</t>
-  </si>
-  <si>
-    <t>-2.014623958039381</t>
-  </si>
-  <si>
-    <t>2.752872127197409</t>
-  </si>
-  <si>
-    <t>2.345092341328239</t>
+    <t>0.7399999999999998</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>8.040000000000001</t>
+  </si>
+  <si>
+    <t>-6.4799999999999995</t>
   </si>
   <si>
     <t>vec_alpha</t>
